--- a/Datasets/provincias_variado.xlsx
+++ b/Datasets/provincias_variado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF54ECA-5D5E-B049-BD13-BA24A91C2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C900F-D1EF-534F-AAA1-93F562B88EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -958,6 +958,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -984,24 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1322,94 +1322,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1437,73 +1437,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5211,8 +5211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D32F39-0DA6-4B55-AD6E-BFC4DE865BB0}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5228,577 +5228,577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="19">
         <v>2009</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="19">
         <v>2009</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="19">
         <v>2009</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="19">
         <v>2019</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="24" t="s">
         <v>139</v>
       </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="19">
         <v>2019</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="24" t="s">
         <v>143</v>
       </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="19">
         <v>2019</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="24" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="19">
         <v>2019</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="24" t="s">
         <v>146</v>
       </c>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="19">
         <v>2019</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="24" t="s">
         <v>149</v>
       </c>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="19">
         <v>2019</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="24" t="s">
         <v>152</v>
       </c>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="19">
         <v>2020</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C14" s="19">
         <v>2020</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="19">
         <v>2020</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="19">
         <v>2018</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="24" t="s">
         <v>160</v>
       </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="19">
         <v>2018</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="22" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="19">
         <v>2019</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="19">
         <v>2019</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="22" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="19">
         <v>2019</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="160" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="22" t="s">
         <v>169</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="24" t="s">
         <v>172</v>
       </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="176" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="22" t="s">
         <v>173</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="24" t="s">
         <v>175</v>
       </c>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="24" t="s">
         <v>177</v>
       </c>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="273" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="22" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="17"/>

--- a/Datasets/provincias_variado.xlsx
+++ b/Datasets/provincias_variado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C900F-D1EF-534F-AAA1-93F562B88EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C6224-92C3-4B44-A4AF-531DC8B29328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="188">
   <si>
     <t>CCAA</t>
   </si>
@@ -626,12 +626,112 @@
 Este conjunto de variables puede ser útil para aplicar técnicas de reducir la dimensionalidad y entender las relaciones entre las diferentes variables.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Análisis PCA. Conocer que variables son de interés para estudiar las variables socioeconómicas de las provincias y ver cuáles son las más parecidas y las más diferentes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Análisis exploratorio con matriz de correlaciones..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Escalar/centrar los datos antes de aplicar pca y decidir si hacerlo con matriz de correlaciones o covarianzas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Seleccionar un determinado número de componentes y ver como influyen las variables en estas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.Interpretar componentes y resultados.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +783,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1320,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1411,9 +1516,93 @@
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
     </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G11"/>
+    <mergeCell ref="B13:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5211,7 +5400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D32F39-0DA6-4B55-AD6E-BFC4DE865BB0}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
